--- a/src/analysis_examples/circadb/results_jtk/cosinor_10358670_hmcn1_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10358670_hmcn1_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.23828384523040663, 0.29436344450178814]</t>
+          <t>[0.2389617707958918, 0.293685518936303]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>4.884981308350689e-15</v>
+        <v>2.886579864025407e-15</v>
       </c>
       <c r="N2" t="n">
-        <v>4.884981308350689e-15</v>
+        <v>2.886579864025407e-15</v>
       </c>
       <c r="O2" t="n">
         <v>-0.5534737808126167</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.4342646921487868, 0.463531201911089]</t>
+          <t>[0.43427193170921735, 0.46352396235065846]</t>
         </is>
       </c>
       <c r="U2" t="n">
